--- a/rfuse/Archive/로컬_개별실험_v3/rfuse_busy_summary.xlsx
+++ b/rfuse/Archive/로컬_개별실험_v3/rfuse_busy_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>969</v>
+        <v>6736</v>
       </c>
       <c r="C3" s="3">
-        <v>4079</v>
+        <v>12200</v>
       </c>
       <c r="D3" s="3">
-        <v>3929</v>
+        <v>18500</v>
       </c>
       <c r="E3" s="3">
-        <v>11300</v>
+        <v>25500</v>
       </c>
       <c r="F3" s="3">
-        <v>10500</v>
+        <v>29200</v>
       </c>
       <c r="G3" s="3">
-        <v>20900</v>
+        <v>30600</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>14400</v>
+        <v>4003</v>
       </c>
       <c r="C8" s="3">
-        <v>23400</v>
+        <v>7393</v>
       </c>
       <c r="D8" s="3">
-        <v>46500</v>
+        <v>15900</v>
       </c>
       <c r="E8" s="3">
-        <v>81300</v>
+        <v>109000</v>
       </c>
       <c r="F8" s="3">
-        <v>150000</v>
+        <v>174000</v>
       </c>
       <c r="G8" s="3">
-        <v>172000</v>
+        <v>244000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>3047</v>
+        <v>8325</v>
       </c>
       <c r="C13" s="3">
-        <v>3424</v>
+        <v>9022</v>
       </c>
       <c r="D13" s="3">
-        <v>3606</v>
+        <v>10700</v>
       </c>
       <c r="E13" s="3">
-        <v>3740</v>
+        <v>12400</v>
       </c>
       <c r="F13" s="3">
-        <v>3942</v>
+        <v>11700</v>
       </c>
       <c r="G13" s="3">
-        <v>4469</v>
+        <v>13400</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>121000</v>
+        <v>115000</v>
       </c>
       <c r="C18" s="3">
-        <v>211000</v>
+        <v>161000</v>
       </c>
       <c r="D18" s="3">
-        <v>308000</v>
+        <v>177000</v>
       </c>
       <c r="E18" s="3">
-        <v>431000</v>
+        <v>214000</v>
       </c>
       <c r="F18" s="3">
-        <v>410000</v>
+        <v>233000</v>
       </c>
       <c r="G18" s="3">
-        <v>158000</v>
+        <v>276000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>4087</v>
+        <v>2797</v>
       </c>
       <c r="C23" s="3">
-        <v>4518</v>
+        <v>3075</v>
       </c>
       <c r="D23" s="3">
-        <v>6180</v>
+        <v>5152</v>
       </c>
       <c r="E23" s="3">
-        <v>14800</v>
+        <v>8445</v>
       </c>
       <c r="F23" s="3">
-        <v>8770</v>
+        <v>7553</v>
       </c>
       <c r="G23" s="3">
-        <v>20300</v>
+        <v>19400</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>87400</v>
+        <v>90500</v>
       </c>
       <c r="C28" s="3">
-        <v>152000</v>
+        <v>115000</v>
       </c>
       <c r="D28" s="3">
-        <v>265000</v>
+        <v>171000</v>
       </c>
       <c r="E28" s="3">
-        <v>242000</v>
+        <v>247000</v>
       </c>
       <c r="F28" s="3">
-        <v>267000</v>
+        <v>262000</v>
       </c>
       <c r="G28" s="3">
-        <v>646000</v>
+        <v>272000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>6872</v>
+        <v>5785</v>
       </c>
       <c r="C33" s="3">
-        <v>9102</v>
+        <v>7393</v>
       </c>
       <c r="D33" s="3">
-        <v>11700</v>
+        <v>8175</v>
       </c>
       <c r="E33" s="3">
-        <v>12000</v>
+        <v>9340</v>
       </c>
       <c r="F33" s="3">
-        <v>14300</v>
+        <v>9810</v>
       </c>
       <c r="G33" s="3">
-        <v>13900</v>
+        <v>10300</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>152000</v>
+        <v>121000</v>
       </c>
       <c r="C38" s="3">
-        <v>177000</v>
+        <v>166000</v>
       </c>
       <c r="D38" s="3">
-        <v>278000</v>
+        <v>188000</v>
       </c>
       <c r="E38" s="3">
-        <v>364000</v>
+        <v>215000</v>
       </c>
       <c r="F38" s="3">
-        <v>434000</v>
+        <v>241000</v>
       </c>
       <c r="G38" s="3">
-        <v>258000</v>
+        <v>283000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/Archive/로컬_개별실험_v3/rfuse_busy_summary.xlsx
+++ b/rfuse/Archive/로컬_개별실험_v3/rfuse_busy_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>6736</v>
+        <v>6826</v>
       </c>
       <c r="C3" s="3">
-        <v>12200</v>
+        <v>12700</v>
       </c>
       <c r="D3" s="3">
-        <v>18500</v>
+        <v>18700</v>
       </c>
       <c r="E3" s="3">
-        <v>25500</v>
+        <v>25700</v>
       </c>
       <c r="F3" s="3">
-        <v>29200</v>
+        <v>31800</v>
       </c>
       <c r="G3" s="3">
-        <v>30600</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>4003</v>
+        <v>6558</v>
       </c>
       <c r="C8" s="3">
-        <v>7393</v>
+        <v>7813</v>
       </c>
       <c r="D8" s="3">
-        <v>15900</v>
+        <v>15700</v>
       </c>
       <c r="E8" s="3">
         <v>109000</v>
       </c>
       <c r="F8" s="3">
-        <v>174000</v>
+        <v>173000</v>
       </c>
       <c r="G8" s="3">
-        <v>244000</v>
+        <v>247000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,19 +558,19 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>8325</v>
+        <v>8062</v>
       </c>
       <c r="C13" s="3">
-        <v>9022</v>
+        <v>9394</v>
       </c>
       <c r="D13" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="E13" s="3">
-        <v>12400</v>
+        <v>11300</v>
       </c>
       <c r="F13" s="3">
-        <v>11700</v>
+        <v>12600</v>
       </c>
       <c r="G13" s="3">
         <v>13400</v>
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>115000</v>
+        <v>120000</v>
       </c>
       <c r="C18" s="3">
-        <v>161000</v>
+        <v>156000</v>
       </c>
       <c r="D18" s="3">
-        <v>177000</v>
+        <v>207000</v>
       </c>
       <c r="E18" s="3">
-        <v>214000</v>
+        <v>218000</v>
       </c>
       <c r="F18" s="3">
-        <v>233000</v>
+        <v>256000</v>
       </c>
       <c r="G18" s="3">
-        <v>276000</v>
+        <v>284000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>2797</v>
+        <v>2461</v>
       </c>
       <c r="C23" s="3">
-        <v>3075</v>
+        <v>3103</v>
       </c>
       <c r="D23" s="3">
-        <v>5152</v>
+        <v>4995</v>
       </c>
       <c r="E23" s="3">
-        <v>8445</v>
+        <v>8560</v>
       </c>
       <c r="F23" s="3">
-        <v>7553</v>
+        <v>9503</v>
       </c>
       <c r="G23" s="3">
-        <v>19400</v>
+        <v>6811</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>90500</v>
+        <v>88800</v>
       </c>
       <c r="C28" s="3">
-        <v>115000</v>
+        <v>104000</v>
       </c>
       <c r="D28" s="3">
-        <v>171000</v>
+        <v>170000</v>
       </c>
       <c r="E28" s="3">
-        <v>247000</v>
+        <v>280000</v>
       </c>
       <c r="F28" s="3">
-        <v>262000</v>
+        <v>282000</v>
       </c>
       <c r="G28" s="3">
-        <v>272000</v>
+        <v>248000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>5785</v>
+        <v>6168</v>
       </c>
       <c r="C33" s="3">
-        <v>7393</v>
+        <v>7420</v>
       </c>
       <c r="D33" s="3">
-        <v>8175</v>
+        <v>8143</v>
       </c>
       <c r="E33" s="3">
-        <v>9340</v>
+        <v>9706</v>
       </c>
       <c r="F33" s="3">
-        <v>9810</v>
+        <v>10000</v>
       </c>
       <c r="G33" s="3">
-        <v>10300</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>121000</v>
+        <v>120000</v>
       </c>
       <c r="C38" s="3">
-        <v>166000</v>
+        <v>164000</v>
       </c>
       <c r="D38" s="3">
-        <v>188000</v>
+        <v>209000</v>
       </c>
       <c r="E38" s="3">
-        <v>215000</v>
+        <v>211000</v>
       </c>
       <c r="F38" s="3">
-        <v>241000</v>
+        <v>252000</v>
       </c>
       <c r="G38" s="3">
-        <v>283000</v>
+        <v>279000</v>
       </c>
     </row>
   </sheetData>
